--- a/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Rohit\Automation\Demo\Kaman\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B964C312-F4E3-4A20-A23C-B8EB88573430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3CFEA6-222E-4CBA-81C8-B2D68BDBD962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC29_VerifyALL_Links_Myaccount" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="72">
   <si>
     <t>TestCase</t>
   </si>
@@ -74,18 +74,9 @@
     <t>CLICK</t>
   </si>
   <si>
-    <t>bep-dvlp@kaman.com</t>
-  </si>
-  <si>
-    <t>bep999</t>
-  </si>
-  <si>
     <t>AccModel</t>
   </si>
   <si>
-    <t>SelectAcc</t>
-  </si>
-  <si>
     <t>Welcomeelement</t>
   </si>
   <si>
@@ -240,6 +231,12 @@
   </si>
   <si>
     <t>$BaseURL</t>
+  </si>
+  <si>
+    <t>$Registered_Username</t>
+  </si>
+  <si>
+    <t>$Registered_Password</t>
   </si>
 </sst>
 </file>
@@ -667,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -701,7 +698,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -731,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -746,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -761,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -771,7 +768,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -783,56 +780,56 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -841,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -850,31 +847,33 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
@@ -882,43 +881,41 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -927,7 +924,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -936,17 +933,17 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -955,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -964,17 +961,17 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -992,60 +989,60 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>10</v>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1054,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
@@ -1063,17 +1060,17 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1082,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1091,17 +1088,17 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1110,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1119,60 +1116,60 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1181,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -1190,60 +1187,60 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>57</v>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1251,8 +1248,8 @@
       <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>22</v>
+      <c r="C41" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
@@ -1261,60 +1258,60 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>65</v>
+      <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>59</v>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1322,8 +1319,8 @@
       <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>22</v>
+      <c r="C46" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -1332,17 +1329,17 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>66</v>
+      <c r="B47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>30</v>
+      <c r="E47" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1350,8 +1347,8 @@
       <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>66</v>
+      <c r="C48" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
@@ -1360,17 +1357,17 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>60</v>
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1378,8 +1375,8 @@
       <c r="B50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>22</v>
+      <c r="C50" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
@@ -1388,60 +1385,60 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>67</v>
+      <c r="B51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>67</v>
+      <c r="E51" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
-      <c r="B54" s="4" t="s">
-        <v>10</v>
+      <c r="B54" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1450,7 +1447,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -1459,55 +1456,55 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>12</v>
+      <c r="B56" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
-      <c r="B59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3"/>
@@ -1515,7 +1512,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
@@ -1524,45 +1521,17 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>12</v>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>64</v>
+      <c r="E61" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1576,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1599,28 +1568,28 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -1628,7 +1597,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
@@ -1636,7 +1605,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -1644,103 +1613,103 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="b">
         <v>1</v>
@@ -1748,15 +1717,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1764,7 +1733,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1772,7 +1741,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1780,7 +1749,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1788,7 +1757,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1796,7 +1765,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -1804,7 +1773,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1812,7 +1781,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1820,7 +1789,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1828,7 +1797,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1836,7 +1805,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="b">
         <v>1</v>
@@ -1844,7 +1813,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1852,7 +1821,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="b">
         <v>1</v>
@@ -1860,7 +1829,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3" t="b">
         <v>1</v>
@@ -1868,7 +1837,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" s="3" t="b">
         <v>1</v>
@@ -1876,7 +1845,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B37" s="3" t="b">
         <v>1</v>
@@ -1884,7 +1853,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3" t="b">
         <v>1</v>
@@ -1892,7 +1861,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3" t="b">
         <v>1</v>
@@ -1900,7 +1869,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3" t="b">
         <v>1</v>
@@ -1908,7 +1877,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3" t="b">
         <v>1</v>
@@ -1916,7 +1885,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3" t="b">
         <v>1</v>
@@ -1924,7 +1893,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B43" s="5" t="b">
         <v>0</v>
@@ -1937,21 +1906,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2148,15 +2108,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2165,7 +2126,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2182,4 +2143,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>